--- a/core/parser/input/0993812_06-05-2025_1.xlsx
+++ b/core/parser/input/0993812_06-05-2025_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="0" windowWidth="22920" windowHeight="10215"/>
+    <workbookView xWindow="12960" yWindow="0" windowWidth="22920" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2514,7 +2514,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2528,6 +2528,12 @@
     <font>
       <vertAlign val="superscript"/>
       <sz val="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -2876,9 +2882,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
@@ -2887,6 +2890,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3171,7 +3177,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3195,7 +3201,7 @@
       <c r="C1" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>188</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -3924,7 +3930,7 @@
       <c r="D23" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="19" t="s">
         <v>189</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -4380,7 +4386,7 @@
       <c r="B37" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="21">
         <v>2</v>
       </c>
       <c r="D37" s="12" t="s">
@@ -4419,7 +4425,7 @@
       <c r="D38" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="20">
         <v>6.12</v>
       </c>
       <c r="F38" s="5" t="s">
